--- a/biology/Zoologie/Formation_de_Bayin-Gobi/Formation_de_Bayin-Gobi.xlsx
+++ b/biology/Zoologie/Formation_de_Bayin-Gobi/Formation_de_Bayin-Gobi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La formation de Bayin-Gobi (ou de Bayangobi, ou encore Bayingebi), est une formation géologique qui affleure dans la région autonome de Mongolie-Intérieure en Chine.
 Cette formation du bassin de Yin-E est datée du Crétacé inférieur, peu précisément entre le Barrémien et l'Albien, soit il y a environ entre 125,77 et 100,5 millions d'années.
-Elle est connue pour ses fossiles de vertébrés et, en particulier, ses restes de dinosaures[1].
+Elle est connue pour ses fossiles de vertébrés et, en particulier, ses restes de dinosaures.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Lithostratigraphie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation de Bayin-Gobi repose sur le socle métamorphique permien, et est surmontée par la formation de Suhongtu datée également du Crétacé inférieur.
 </t>
@@ -545,14 +559,16 @@
           <t>Paléofaune de vertébrés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Alxasaurus elesitaiensis[2] ;
-Bannykus wulatensis[3] ;
-Sauropoda indéterminé[1] ;
-Psittacosaurus sp.[1] ;
-Penelopognathus weishampeli[4] ;
-Bayannurosaurus perfectus[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alxasaurus elesitaiensis ;
+Bannykus wulatensis ;
+Sauropoda indéterminé ;
+Psittacosaurus sp. ;
+Penelopognathus weishampeli ;
+Bayannurosaurus perfectus.</t>
         </is>
       </c>
     </row>
